--- a/DateBase/orders/Nhat 48_2025-12-3.xlsx
+++ b/DateBase/orders/Nhat 48_2025-12-3.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:L31"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -526,10 +526,179 @@
       <c r="A11" t="str">
         <v>4</v>
       </c>
+      <c r="C11" t="str">
+        <v>316_尤加利叶大叶_Eucalyptus Cinerea_undefined_1bunch</v>
+      </c>
+      <c r="F11" t="str">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="C12" t="str">
+        <v>522_山归来绿_Smilax china_undefined_1bunch</v>
+      </c>
+      <c r="F12" t="str">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="C13" t="str">
+        <v>496_大飞燕深蓝色_delphinium dark blue_undefined_1bunch</v>
+      </c>
+      <c r="F13" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="C14" t="str">
+        <v>403_大飞燕浅蓝色_delphinium light blue_undefined_1bunch</v>
+      </c>
+      <c r="F14" t="str">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="C15" t="str">
+        <v>401_大飞燕白色_delphinium white_undefined_1bunch</v>
+      </c>
+      <c r="F15" t="str">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="C16" t="str">
+        <v>571_大飞燕浅紫_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F16" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="C17" t="str">
+        <v>322_喷泉草_Grasses Panicum_undefined_1bunch</v>
+      </c>
+      <c r="F17" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="C18" t="str">
+        <v>840_洋牡丹塞纳河_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F18" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" xml:space="preserve">
+      <c r="C19" t="str" xml:space="preserve">
+        <v xml:space="preserve">404_小飞燕白色_ delphinium ballkleid
+white_undefined_1bunch</v>
+      </c>
+      <c r="F19" t="str">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" xml:space="preserve">
+      <c r="C20" t="str" xml:space="preserve">
+        <v xml:space="preserve">405_小飞燕浅蓝_ delphinium ballkleid
+dark blue_undefined_1bunch</v>
+      </c>
+      <c r="F20" t="str">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="C21" t="str">
+        <v>623_多丁粉太子_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F21" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="C22" t="str">
+        <v>439_九星叶_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F22" t="str">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="C23" t="str">
+        <v>315_尤加利叶圆叶_Eucalyptus Populus_undefined_1bunch</v>
+      </c>
+      <c r="F23" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="str">
+        <v>5</v>
+      </c>
+      <c r="C24" t="str">
+        <v>341_南天竹绿_undefined_Nandina domestica Thunb._1bunch</v>
+      </c>
+      <c r="F24" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="C25" t="str">
+        <v>327_文竹_asparagus fern_undefined_1bunch</v>
+      </c>
+      <c r="F25" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="C26" t="str">
+        <v>849_婚庆卢荀草_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F26" t="str">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="C27" t="str">
+        <v>389_金合欢_mimosa_undefined_1bunch</v>
+      </c>
+      <c r="F27" t="str">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" xml:space="preserve">
+      <c r="C28" t="str" xml:space="preserve">
+        <v xml:space="preserve">349_千层金绿_Melaleuca bracteata
+（dyed orange）_Melaleuca bracteata F.Muell._1bunch</v>
+      </c>
+      <c r="F28" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="C29" t="str">
+        <v>321_雪柳叶_Spiraea  leaves_undefined_1bunch</v>
+      </c>
+      <c r="F29" t="str">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="C30" t="str">
+        <v>462_五针松_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F30" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="C31" t="str">
+        <v>756_雪花松_undefined_undefined_1bunch</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L11"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L31"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -587,7 +756,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>046827.52012.523622160</v>
+        <v>046827.52012.52362216661540401055121256105535302030100</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Nhat 48_2025-12-3.xlsx
+++ b/DateBase/orders/Nhat 48_2025-12-3.xlsx
@@ -695,6 +695,9 @@
       <c r="C31" t="str">
         <v>756_雪花松_undefined_undefined_1bunch</v>
       </c>
+      <c r="F31" t="str">
+        <v>3</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -756,7 +759,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>046827.52012.52362216661540401055121256105535302030100</v>
+        <v>046827.52012.52362216661540401055121256105535302030103</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Nhat 48_2025-12-3.xlsx
+++ b/DateBase/orders/Nhat 48_2025-12-3.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L31"/>
+  <dimension ref="A1:L61"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -696,12 +696,261 @@
         <v>756_雪花松_undefined_undefined_1bunch</v>
       </c>
       <c r="F31" t="str">
-        <v>3</v>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="C32" t="str">
+        <v>359_蓝梦叶_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F32" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="str">
+        <v>6</v>
+      </c>
+      <c r="C33" t="str">
+        <v>118_绣球老绿_Hydrangea Garden Lace_Hydrangea L._1stem</v>
+      </c>
+      <c r="F33" t="str">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="C34" t="str">
+        <v>126_绣球苹果绿_Hydrangea Garden Lace_Hydrangea L._1stem</v>
+      </c>
+      <c r="F34" t="str">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="C35" t="str">
+        <v>102_绣球重瓣白_Hydrangea White D_Hydrangea L._1stem</v>
+      </c>
+      <c r="F35" t="str">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="C36" t="str">
+        <v>114_绣球孔雀蓝_Hydrangea Peacoke_Hydrangea L._1stem</v>
+      </c>
+      <c r="F36" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="C37" t="str">
+        <v>114_绣球孔雀蓝_Hydrangea Peacoke_Hydrangea L._1stem</v>
+      </c>
+      <c r="F37" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="C38" t="str">
+        <v>110_绣球浅蓝_Hydrangea Light Blue S_Hydrangea L._1stem</v>
+      </c>
+      <c r="F38" t="str">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="C39" t="str">
+        <v>111_绣球紫粉_Hydrangea Purple&amp;Pink S_Hydrangea L._1stem</v>
+      </c>
+      <c r="F39" t="str">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="str">
+        <v>7</v>
+      </c>
+      <c r="C40" t="str">
+        <v>671_大丽花 黄_undefined_undefined_5stems</v>
+      </c>
+      <c r="F40" t="str">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="C41" t="str">
+        <v>834_海芋黄_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F41" t="str">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="C42" t="str">
+        <v>629_干花蓬莱松_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F42" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="str">
+        <v>8</v>
+      </c>
+      <c r="C43" t="str">
+        <v>316_尤加利叶大叶_Eucalyptus Cinerea_undefined_1bunch</v>
+      </c>
+      <c r="F43" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="C44" t="str">
+        <v>328_卢荀草_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F44" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="C45" t="str">
+        <v>557_山茶花_camellia_undefined_1bunch</v>
+      </c>
+      <c r="F45" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="C46" t="str">
+        <v>348_万年青_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F46" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="C47" t="str">
+        <v>771_美洲茶_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F47" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="C48" t="str">
+        <v>107_绣球浅粉_Hydrangea Light Pink S_Hydrangea L._1stem</v>
+      </c>
+      <c r="F48" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="C49" t="str">
+        <v>110_绣球浅蓝_Hydrangea Light Blue S_Hydrangea L._1stem</v>
+      </c>
+      <c r="F49" t="str">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="C50" t="str">
+        <v>439_九星叶_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F50" t="str">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="C51" t="str">
+        <v>86_威尼斯_undefined_Gerbera L._10stems</v>
+      </c>
+      <c r="F51" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="C52" t="str">
+        <v>84_堪培拉_undefined_Gerbera L._10stems</v>
+      </c>
+      <c r="F52" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="C53" t="str">
+        <v>41_拉丝白_Spider White_Gerbera L._20stems</v>
+      </c>
+      <c r="F53" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="C54" t="str">
+        <v>317_尤加利叶细叶_Eucalyptus Parvifolia_undefined_1bunch</v>
+      </c>
+      <c r="F54" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="str">
+        <v>9</v>
+      </c>
+      <c r="C55" t="str">
+        <v>743_永生吊米红_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F55" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="C56" t="str">
+        <v>595_玉兰叶_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F56" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="C57" t="str">
+        <v>548_白星花_tweedia white_undefined_1bunch</v>
+      </c>
+      <c r="F57" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="C58" t="str">
+        <v>512_松虫草粉_scabiosa pink_undefined_1bunch</v>
+      </c>
+      <c r="F58" t="str">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="C59" t="str">
+        <v>420_松虫草QQ糖_scabiosa white pink_undefined_1bunch</v>
+      </c>
+      <c r="F59" t="str">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="C60" t="str">
+        <v>730_蝴蝶洋牡丹奶油黄_butterfly  Ranunculus_undefined_1bunch</v>
+      </c>
+      <c r="F60" t="str">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="str">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L31"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L61"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -759,7 +1008,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>046827.52012.52362216661540401055121256105535302030103</v>
+        <v>046827.52012.52362216661540401055121256105535302030103215302525151530303061510151015101531420510102010588120</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Nhat 48_2025-12-3.xlsx
+++ b/DateBase/orders/Nhat 48_2025-12-3.xlsx
@@ -947,6 +947,9 @@
       <c r="A61" t="str">
         <v>1</v>
       </c>
+      <c r="C61" t="str">
+        <v>201_美琴_Mikoto_Rosa rugosa Thunb._20stems</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>

--- a/DateBase/orders/Nhat 48_2025-12-3.xlsx
+++ b/DateBase/orders/Nhat 48_2025-12-3.xlsx
@@ -950,6 +950,9 @@
       <c r="C61" t="str">
         <v>201_美琴_Mikoto_Rosa rugosa Thunb._20stems</v>
       </c>
+      <c r="F61" t="str">
+        <v>12</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -1011,7 +1014,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>046827.52012.52362216661540401055121256105535302030103215302525151530303061510151015101531420510102010588120</v>
+        <v>046827.52012.523622166615404010551212561055353020301032153025251515303030615101510151015314205101020105881212</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Nhat 48_2025-12-3.xlsx
+++ b/DateBase/orders/Nhat 48_2025-12-3.xlsx
@@ -1016,6 +1016,9 @@
       <c r="G2" t="str">
         <v>046827.52012.523622166615404010551212561055353020301032153025251515303030615101510151015314205101020105881212</v>
       </c>
+      <c r="H2" t="str">
+        <v>CNY</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
